--- a/data/trans_dic/P20_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado la relación con sus convivientes</t>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>21,23%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,82; 39,06</t>
+          <t>5,43; 57,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,84; 47,71</t>
+          <t>7,98; 63,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 10,95</t>
+          <t>1,69; 15,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 18,58</t>
+          <t>6,56; 25,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 22,49</t>
+          <t>4,54; 34,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 31,38</t>
+          <t>9,84; 45,31</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 10,39</t>
+          <t>3,89; 12,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,38; 15,74</t>
+          <t>7,59; 17,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,17; 18,53</t>
+          <t>7,43; 16,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 16,26</t>
+          <t>7,32; 17,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,29; 13,6</t>
+          <t>6,44; 12,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,99; 15,01</t>
+          <t>8,44; 15,24</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,81%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 17,17</t>
+          <t>7,82; 20,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 13,38</t>
+          <t>5,98; 17,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 23,56</t>
+          <t>11,24; 23,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,57; 20,94</t>
+          <t>9,85; 20,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 18,77</t>
+          <t>11,33; 20,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 15,86</t>
+          <t>9,6; 17,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 14,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 19,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,44; 17,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 16,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 16,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11,63%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,9%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,85%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 19,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 22,56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9,84; 16,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 16,32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10,0; 16,11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10,89; 18,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>24316</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38615</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6551</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19001</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30867</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>57615</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5615; 59123</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10290; 82053</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1988; 18145</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9349; 36107</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10046; 75320</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26709; 122943</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26262</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>51149</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>44749</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>52786</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>71011</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>103935</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14256; 46078</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>32591; 76791</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29006; 65573</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33987; 78998</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>48693; 93864</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>75429; 136245</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37293</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>34164</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60244</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>63368</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>97537</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>97532</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22370; 57413</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19895; 56791</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40424; 84342</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>42205; 86763</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>73108; 129672</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>73098; 133586</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>87871</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>123928</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>111544</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>135155</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>199415</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>259083</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>59640; 147328</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>82112; 201072</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>85439; 145957</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>101344; 169018</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>162396; 261455</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>209888; 347601</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>